--- a/CardGame/Luban/Datas/Timeline.xlsx
+++ b/CardGame/Luban/Datas/Timeline.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,12 @@
     <t>array,TimelineNodeWarp</t>
   </si>
   <si>
+    <t>Elapsed</t>
+  </si>
+  <si>
+    <t>EventWarp</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -64,31 +70,55 @@
     <t>第几秒</t>
   </si>
   <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>Elapsed</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>FarAttack</t>
-  </si>
-  <si>
-    <t>CasterPlayAnim,""</t>
-  </si>
-  <si>
-    <t>PlayEffectOnCaster,""</t>
-  </si>
-  <si>
-    <t>FireBullet,""</t>
-  </si>
-  <si>
-    <t>NearAttack</t>
-  </si>
-  <si>
-    <t>SetCasterPos,""</t>
+    <t>方法名</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>Mozhate_Attack</t>
+  </si>
+  <si>
+    <t>CasterPlayAnim</t>
+  </si>
+  <si>
+    <t>PlayEffectOnCaster</t>
+  </si>
+  <si>
+    <t>PlayMoveEffect</t>
+  </si>
+  <si>
+    <t>PlayEffectOnTarget</t>
+  </si>
+  <si>
+    <t>CreateDamage</t>
+  </si>
+  <si>
+    <t>Shengtisong</t>
+  </si>
+  <si>
+    <t>PlaySkillLihui</t>
+  </si>
+  <si>
+    <t>mString-ShengtisongLihui</t>
+  </si>
+  <si>
+    <t>PlayAnimOnCaster</t>
+  </si>
+  <si>
+    <t>mString-Skill_01</t>
+  </si>
+  <si>
+    <t>mString-x1_mozhate_skill02_self</t>
+  </si>
+  <si>
+    <t>mString-x1_mozhate_skill02_hit</t>
+  </si>
+  <si>
+    <t>TransferBuff</t>
+  </si>
+  <si>
+    <t>RemoveBuff</t>
   </si>
 </sst>
 </file>
@@ -704,9 +734,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,18 +1055,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="64.625" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="47.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="6.875" customWidth="1"/>
     <col min="9" max="9" width="7.875" customWidth="1"/>
@@ -1043,7 +1076,7 @@
     <col min="14" max="14" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,8 +1090,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1072,96 +1106,132 @@
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="10" spans="5:5">
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11">
-        <v>0.5</v>
-      </c>
+    <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1175,7 +1245,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,7 +1262,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/CardGame/Luban/Datas/Timeline.xlsx
+++ b/CardGame/Luban/Datas/Timeline.xlsx
@@ -734,12 +734,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,7 +1055,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1115,10 +1112,10 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -1145,7 +1142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" hidden="1" spans="2:5">
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1155,32 +1152,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" hidden="1" spans="5:5">
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" hidden="1" spans="5:5">
       <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" hidden="1" spans="5:5">
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" hidden="1" spans="5:5">
       <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="12" hidden="1"/>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1190,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
+    <row r="14" spans="4:6">
+      <c r="D14">
+        <v>0.2</v>
+      </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1201,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
+    <row r="15" spans="4:6">
+      <c r="D15">
+        <v>0.3</v>
+      </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1212,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
+    <row r="16" spans="4:6">
+      <c r="D16">
+        <v>0.5</v>
+      </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -1212,17 +1223,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>0.6</v>
+      </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>0.7</v>
+      </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>

--- a/CardGame/Luban/Datas/Timeline.xlsx
+++ b/CardGame/Luban/Datas/Timeline.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -79,57 +79,73 @@
     <t>Mozhate_Attack</t>
   </si>
   <si>
-    <t>CasterPlayAnim</t>
+    <t>TargetInit</t>
+  </si>
+  <si>
+    <t>mTargetWarp-敌方#Normal#1</t>
+  </si>
+  <si>
+    <t>PlayAnimOnCaster</t>
+  </si>
+  <si>
+    <t>mString-Attack</t>
   </si>
   <si>
     <t>PlayEffectOnCaster</t>
   </si>
   <si>
-    <t>PlayMoveEffect</t>
-  </si>
-  <si>
-    <t>PlayEffectOnTarget</t>
+    <t>mPlayEffectWarp-#Origin#mozhate_atk_self</t>
   </si>
   <si>
     <t>CreateDamage</t>
   </si>
   <si>
+    <t>mCreateDamageWarp-固定值#魔法#0#100#mozhate_atk_hit</t>
+  </si>
+  <si>
+    <t>圣体颂</t>
+  </si>
+  <si>
     <t>Shengtisong</t>
   </si>
   <si>
-    <t>PlaySkillLihui</t>
-  </si>
-  <si>
-    <t>mString-ShengtisongLihui</t>
-  </si>
-  <si>
-    <t>PlayAnimOnCaster</t>
+    <t>mTargetWarp-敌方#Random#3</t>
+  </si>
+  <si>
+    <t>mString-Skill_02</t>
+  </si>
+  <si>
+    <t>mPlayEffectWarp-#Origin#mozhate_skill02_self</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>安魂曲</t>
+  </si>
+  <si>
+    <t>Anhunqu</t>
+  </si>
+  <si>
+    <t>mTargetWarp-我方#MyDeadOrLowestHealth#1</t>
   </si>
   <si>
     <t>mString-Skill_01</t>
   </si>
   <si>
-    <t>mString-x1_mozhate_skill02_self</t>
-  </si>
-  <si>
-    <t>mString-x1_mozhate_skill02_hit</t>
-  </si>
-  <si>
-    <t>TransferBuff</t>
-  </si>
-  <si>
-    <t>RemoveBuff</t>
+    <t>mPlayEffectWarp-#Origin#mozhate_skill01_self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -734,12 +750,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,18 +1071,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="6" width="47.125" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="64.375" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="6.875" customWidth="1"/>
     <col min="9" max="9" width="7.875" customWidth="1"/>
@@ -1142,109 +1161,162 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="2:5">
-      <c r="B7" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C6">
+        <v>1.23</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4.45</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" hidden="1" spans="5:5">
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="5:5">
-      <c r="E9" t="s">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" hidden="1" spans="5:5">
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="5:5">
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" hidden="1"/>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14">
+        <v>3.88</v>
+      </c>
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14">
-        <v>0.2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
+    </row>
+    <row r="15" spans="4:5">
       <c r="D15">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6">
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>2.2</v>
+      </c>
       <c r="D17">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18">
-        <v>0.7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
